--- a/products/13.xlsx
+++ b/products/13.xlsx
@@ -19,9 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Требуется КУРЬЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бельгийский шоколад 2 плитки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бельгийский шоколад 3 плитки </t>
+  </si>
+  <si>
+    <t>Альпийские камни 0.5</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -339,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -361,6 +370,39 @@
         <v>97</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3200</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3600</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1650</v>
+      </c>
+      <c r="C4">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
